--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Cranes Software International Ltd/Pruned_Excel/Pruned_Year_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Cranes Software International Ltd/Pruned_Excel/Pruned_Year_combined.xlsx
@@ -597,13 +597,13 @@
         <v>2.22</v>
       </c>
       <c r="C2">
-        <v>80.54650000000001</v>
+        <v>80.55</v>
       </c>
       <c r="D2">
-        <v>0.1182352941176471</v>
+        <v>0.12</v>
       </c>
       <c r="E2">
-        <v>10.86291666666667</v>
+        <v>10.86</v>
       </c>
       <c r="F2">
         <v>0.02</v>
@@ -612,28 +612,28 @@
         <v>2.17</v>
       </c>
       <c r="H2">
-        <v>-32.30272727272727</v>
+        <v>-32.3</v>
       </c>
       <c r="I2">
         <v>0.12</v>
       </c>
       <c r="J2">
-        <v>-4.035454545454548</v>
+        <v>-4.04</v>
       </c>
       <c r="K2">
-        <v>31.24884615384615</v>
+        <v>31.25</v>
       </c>
       <c r="L2">
-        <v>-40.62409090909092</v>
+        <v>-40.62</v>
       </c>
       <c r="M2">
-        <v>-40.76136363636363</v>
+        <v>-40.76</v>
       </c>
       <c r="N2">
-        <v>2.174642857142857</v>
+        <v>2.17</v>
       </c>
       <c r="O2">
-        <v>-43.38136363636364</v>
+        <v>-43.38</v>
       </c>
       <c r="P2">
         <v>0.15</v>
@@ -642,13 +642,13 @@
         <v>0.24</v>
       </c>
       <c r="R2">
-        <v>-107.3626923076923</v>
+        <v>-107.36</v>
       </c>
       <c r="S2">
-        <v>7.176666666666667</v>
+        <v>7.18</v>
       </c>
       <c r="T2">
-        <v>78.40333333333334</v>
+        <v>78.40000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -659,13 +659,13 @@
         <v>1.21</v>
       </c>
       <c r="C3">
-        <v>80.54650000000001</v>
+        <v>80.55</v>
       </c>
       <c r="D3">
-        <v>0.1182352941176471</v>
+        <v>0.12</v>
       </c>
       <c r="E3">
-        <v>10.86291666666667</v>
+        <v>10.86</v>
       </c>
       <c r="F3">
         <v>0.03</v>
@@ -674,28 +674,28 @@
         <v>1.19</v>
       </c>
       <c r="H3">
-        <v>-32.30272727272727</v>
+        <v>-32.3</v>
       </c>
       <c r="I3">
         <v>0.14</v>
       </c>
       <c r="J3">
-        <v>-4.035454545454548</v>
+        <v>-4.04</v>
       </c>
       <c r="K3">
         <v>0.03</v>
       </c>
       <c r="L3">
-        <v>-40.62409090909092</v>
+        <v>-40.62</v>
       </c>
       <c r="M3">
-        <v>-40.76136363636363</v>
+        <v>-40.76</v>
       </c>
       <c r="N3">
         <v>0.04</v>
       </c>
       <c r="O3">
-        <v>-43.38136363636364</v>
+        <v>-43.38</v>
       </c>
       <c r="P3">
         <v>0.06</v>
@@ -704,13 +704,13 @@
         <v>0.24</v>
       </c>
       <c r="R3">
-        <v>-107.3626923076923</v>
+        <v>-107.36</v>
       </c>
       <c r="S3">
-        <v>7.176666666666667</v>
+        <v>7.18</v>
       </c>
       <c r="T3">
-        <v>78.40333333333334</v>
+        <v>78.40000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -721,13 +721,13 @@
         <v>0.71</v>
       </c>
       <c r="C4">
-        <v>80.54650000000001</v>
+        <v>80.55</v>
       </c>
       <c r="D4">
-        <v>0.1182352941176471</v>
+        <v>0.12</v>
       </c>
       <c r="E4">
-        <v>10.86291666666667</v>
+        <v>10.86</v>
       </c>
       <c r="F4">
         <v>0.03</v>
@@ -736,28 +736,28 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="H4">
-        <v>-32.30272727272727</v>
+        <v>-32.3</v>
       </c>
       <c r="I4">
         <v>0.17</v>
       </c>
       <c r="J4">
-        <v>-4.035454545454548</v>
+        <v>-4.04</v>
       </c>
       <c r="K4">
         <v>0.02</v>
       </c>
       <c r="L4">
-        <v>-40.62409090909092</v>
+        <v>-40.62</v>
       </c>
       <c r="M4">
-        <v>-40.76136363636363</v>
+        <v>-40.76</v>
       </c>
       <c r="N4">
         <v>0.01</v>
       </c>
       <c r="O4">
-        <v>-43.38136363636364</v>
+        <v>-43.38</v>
       </c>
       <c r="P4">
         <v>0.01</v>
@@ -766,13 +766,13 @@
         <v>0.24</v>
       </c>
       <c r="R4">
-        <v>-107.3626923076923</v>
+        <v>-107.36</v>
       </c>
       <c r="S4">
-        <v>7.176666666666667</v>
+        <v>7.18</v>
       </c>
       <c r="T4">
-        <v>78.40333333333334</v>
+        <v>78.40000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -783,13 +783,13 @@
         <v>7.07</v>
       </c>
       <c r="C5">
-        <v>80.54650000000001</v>
+        <v>80.55</v>
       </c>
       <c r="D5">
-        <v>0.1182352941176471</v>
+        <v>0.12</v>
       </c>
       <c r="E5">
-        <v>10.86291666666667</v>
+        <v>10.86</v>
       </c>
       <c r="F5">
         <v>0.02</v>
@@ -798,28 +798,28 @@
         <v>7.22</v>
       </c>
       <c r="H5">
-        <v>-32.30272727272727</v>
+        <v>-32.3</v>
       </c>
       <c r="I5">
         <v>0.2</v>
       </c>
       <c r="J5">
-        <v>-4.035454545454548</v>
+        <v>-4.04</v>
       </c>
       <c r="K5">
-        <v>31.24884615384615</v>
+        <v>31.25</v>
       </c>
       <c r="L5">
-        <v>-40.62409090909092</v>
+        <v>-40.62</v>
       </c>
       <c r="M5">
-        <v>-40.76136363636363</v>
+        <v>-40.76</v>
       </c>
       <c r="N5">
         <v>0.01</v>
       </c>
       <c r="O5">
-        <v>-43.38136363636364</v>
+        <v>-43.38</v>
       </c>
       <c r="P5">
         <v>0.02</v>
@@ -828,13 +828,13 @@
         <v>0.24</v>
       </c>
       <c r="R5">
-        <v>-107.3626923076923</v>
+        <v>-107.36</v>
       </c>
       <c r="S5">
-        <v>7.176666666666667</v>
+        <v>7.18</v>
       </c>
       <c r="T5">
-        <v>78.40333333333334</v>
+        <v>78.40000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -845,13 +845,13 @@
         <v>6.53</v>
       </c>
       <c r="C6">
-        <v>80.54650000000001</v>
+        <v>80.55</v>
       </c>
       <c r="D6">
-        <v>0.1182352941176471</v>
+        <v>0.12</v>
       </c>
       <c r="E6">
-        <v>10.86291666666667</v>
+        <v>10.86</v>
       </c>
       <c r="F6">
         <v>0.02</v>
@@ -860,28 +860,28 @@
         <v>6.64</v>
       </c>
       <c r="H6">
-        <v>-32.30272727272727</v>
+        <v>-32.3</v>
       </c>
       <c r="I6">
         <v>0.19</v>
       </c>
       <c r="J6">
-        <v>-4.035454545454548</v>
+        <v>-4.04</v>
       </c>
       <c r="K6">
         <v>0.01</v>
       </c>
       <c r="L6">
-        <v>-40.62409090909092</v>
+        <v>-40.62</v>
       </c>
       <c r="M6">
-        <v>-40.76136363636363</v>
+        <v>-40.76</v>
       </c>
       <c r="N6">
         <v>0.02</v>
       </c>
       <c r="O6">
-        <v>-43.38136363636364</v>
+        <v>-43.38</v>
       </c>
       <c r="P6">
         <v>0.03</v>
@@ -893,10 +893,10 @@
         <v>0.17</v>
       </c>
       <c r="S6">
-        <v>7.176666666666667</v>
+        <v>7.18</v>
       </c>
       <c r="T6">
-        <v>78.40333333333334</v>
+        <v>78.40000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -907,13 +907,13 @@
         <v>10.45</v>
       </c>
       <c r="C7">
-        <v>80.54650000000001</v>
+        <v>80.55</v>
       </c>
       <c r="D7">
-        <v>0.1182352941176471</v>
+        <v>0.12</v>
       </c>
       <c r="E7">
-        <v>10.86291666666667</v>
+        <v>10.86</v>
       </c>
       <c r="F7">
         <v>0.01</v>
@@ -922,28 +922,28 @@
         <v>10.55</v>
       </c>
       <c r="H7">
-        <v>-32.30272727272727</v>
+        <v>-32.3</v>
       </c>
       <c r="I7">
         <v>0.24</v>
       </c>
       <c r="J7">
-        <v>-4.035454545454548</v>
+        <v>-4.04</v>
       </c>
       <c r="K7">
-        <v>31.24884615384615</v>
+        <v>31.25</v>
       </c>
       <c r="L7">
-        <v>-40.62409090909092</v>
+        <v>-40.62</v>
       </c>
       <c r="M7">
-        <v>-40.76136363636363</v>
+        <v>-40.76</v>
       </c>
       <c r="N7">
         <v>0.06</v>
       </c>
       <c r="O7">
-        <v>-43.38136363636364</v>
+        <v>-43.38</v>
       </c>
       <c r="P7">
         <v>0.06</v>
@@ -955,10 +955,10 @@
         <v>0.23</v>
       </c>
       <c r="S7">
-        <v>7.176666666666667</v>
+        <v>7.18</v>
       </c>
       <c r="T7">
-        <v>78.40333333333334</v>
+        <v>78.40000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -969,10 +969,10 @@
         <v>5.82</v>
       </c>
       <c r="C8">
-        <v>80.54650000000001</v>
+        <v>80.55</v>
       </c>
       <c r="D8">
-        <v>0.1182352941176471</v>
+        <v>0.12</v>
       </c>
       <c r="E8">
         <v>0.05</v>
@@ -984,28 +984,28 @@
         <v>0.12</v>
       </c>
       <c r="H8">
-        <v>-32.30272727272727</v>
+        <v>-32.3</v>
       </c>
       <c r="I8">
         <v>0.2</v>
       </c>
       <c r="J8">
-        <v>-4.035454545454548</v>
+        <v>-4.04</v>
       </c>
       <c r="K8">
         <v>0.01</v>
       </c>
       <c r="L8">
-        <v>-40.62409090909092</v>
+        <v>-40.62</v>
       </c>
       <c r="M8">
-        <v>-40.76136363636363</v>
+        <v>-40.76</v>
       </c>
       <c r="N8">
         <v>0.02</v>
       </c>
       <c r="O8">
-        <v>-43.38136363636364</v>
+        <v>-43.38</v>
       </c>
       <c r="P8">
         <v>0.07000000000000001</v>
@@ -1105,7 +1105,7 @@
         <v>2.9</v>
       </c>
       <c r="G10">
-        <v>40.23958333333334</v>
+        <v>40.24</v>
       </c>
       <c r="H10">
         <v>24.74</v>
@@ -1155,7 +1155,7 @@
         <v>98.84</v>
       </c>
       <c r="C11">
-        <v>80.54650000000001</v>
+        <v>80.55</v>
       </c>
       <c r="D11">
         <v>2.68</v>
@@ -1167,31 +1167,31 @@
         <v>5.79</v>
       </c>
       <c r="G11">
-        <v>40.23958333333334</v>
+        <v>40.24</v>
       </c>
       <c r="H11">
-        <v>-32.30272727272727</v>
+        <v>-32.3</v>
       </c>
       <c r="I11">
         <v>0.37</v>
       </c>
       <c r="J11">
-        <v>-4.035454545454548</v>
+        <v>-4.04</v>
       </c>
       <c r="K11">
         <v>7.41</v>
       </c>
       <c r="L11">
-        <v>-40.62409090909092</v>
+        <v>-40.62</v>
       </c>
       <c r="M11">
-        <v>-40.76136363636363</v>
+        <v>-40.76</v>
       </c>
       <c r="N11">
         <v>3.1</v>
       </c>
       <c r="O11">
-        <v>-43.38136363636364</v>
+        <v>-43.38</v>
       </c>
       <c r="P11">
         <v>32.5</v>
@@ -1229,13 +1229,13 @@
         <v>16.77</v>
       </c>
       <c r="G12">
-        <v>40.23958333333334</v>
+        <v>40.24</v>
       </c>
       <c r="H12">
         <v>68.55</v>
       </c>
       <c r="I12">
-        <v>22.26857142857143</v>
+        <v>22.27</v>
       </c>
       <c r="J12">
         <v>68.55</v>
@@ -1291,7 +1291,7 @@
         <v>24.92</v>
       </c>
       <c r="G13">
-        <v>40.23958333333334</v>
+        <v>40.24</v>
       </c>
       <c r="H13">
         <v>87.81999999999999</v>
@@ -1601,7 +1601,7 @@
         <v>48.98</v>
       </c>
       <c r="G18">
-        <v>40.23958333333334</v>
+        <v>40.24</v>
       </c>
       <c r="H18">
         <v>-50.44</v>
@@ -1663,7 +1663,7 @@
         <v>48.23</v>
       </c>
       <c r="G19">
-        <v>40.23958333333334</v>
+        <v>40.24</v>
       </c>
       <c r="H19">
         <v>-177.98</v>
@@ -2088,7 +2088,7 @@
         <v>8.880000000000001</v>
       </c>
       <c r="D26">
-        <v>0.1182352941176471</v>
+        <v>0.12</v>
       </c>
       <c r="E26">
         <v>3.32</v>
@@ -2133,10 +2133,10 @@
         <v>-608.91</v>
       </c>
       <c r="S26">
-        <v>7.176666666666667</v>
+        <v>7.18</v>
       </c>
       <c r="T26">
-        <v>78.40333333333334</v>
+        <v>78.40000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2150,7 +2150,7 @@
         <v>3.8</v>
       </c>
       <c r="D27">
-        <v>0.1182352941176471</v>
+        <v>0.12</v>
       </c>
       <c r="E27">
         <v>3.25</v>
@@ -2195,10 +2195,10 @@
         <v>-645.41</v>
       </c>
       <c r="S27">
-        <v>7.176666666666667</v>
+        <v>7.18</v>
       </c>
       <c r="T27">
-        <v>78.40333333333334</v>
+        <v>78.40000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2212,7 +2212,7 @@
         <v>2.76</v>
       </c>
       <c r="D28">
-        <v>0.1182352941176471</v>
+        <v>0.12</v>
       </c>
       <c r="E28">
         <v>2.31</v>
@@ -2257,10 +2257,10 @@
         <v>-693.8</v>
       </c>
       <c r="S28">
-        <v>7.176666666666667</v>
+        <v>7.18</v>
       </c>
       <c r="T28">
-        <v>78.40333333333334</v>
+        <v>78.40000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2274,7 +2274,7 @@
         <v>0.41</v>
       </c>
       <c r="D29">
-        <v>0.1182352941176471</v>
+        <v>0.12</v>
       </c>
       <c r="E29">
         <v>1.02</v>
@@ -2319,10 +2319,10 @@
         <v>-709.14</v>
       </c>
       <c r="S29">
-        <v>7.176666666666667</v>
+        <v>7.18</v>
       </c>
       <c r="T29">
-        <v>78.40333333333334</v>
+        <v>78.40000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2330,13 +2330,13 @@
         <v>48</v>
       </c>
       <c r="B30">
-        <v>62.27785714285714</v>
+        <v>62.28</v>
       </c>
       <c r="C30">
-        <v>80.54650000000001</v>
+        <v>80.55</v>
       </c>
       <c r="D30">
-        <v>0.1182352941176471</v>
+        <v>0.12</v>
       </c>
       <c r="E30">
         <v>0.5600000000000001</v>
@@ -2381,10 +2381,10 @@
         <v>-796.73</v>
       </c>
       <c r="S30">
-        <v>7.176666666666667</v>
+        <v>7.18</v>
       </c>
       <c r="T30">
-        <v>78.40333333333334</v>
+        <v>78.40000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2392,13 +2392,13 @@
         <v>49</v>
       </c>
       <c r="B31">
-        <v>62.27785714285714</v>
+        <v>62.28</v>
       </c>
       <c r="C31">
-        <v>80.54650000000001</v>
+        <v>80.55</v>
       </c>
       <c r="D31">
-        <v>0.1182352941176471</v>
+        <v>0.12</v>
       </c>
       <c r="E31">
         <v>0.55</v>
@@ -2413,13 +2413,13 @@
         <v>-18.67</v>
       </c>
       <c r="I31">
-        <v>22.26857142857143</v>
+        <v>22.27</v>
       </c>
       <c r="J31">
         <v>-18.67</v>
       </c>
       <c r="K31">
-        <v>31.24884615384615</v>
+        <v>31.25</v>
       </c>
       <c r="L31">
         <v>-18.67</v>
@@ -2428,7 +2428,7 @@
         <v>-18.67</v>
       </c>
       <c r="N31">
-        <v>2.174642857142857</v>
+        <v>2.17</v>
       </c>
       <c r="O31">
         <v>-18.67</v>
@@ -2443,10 +2443,10 @@
         <v>-815.39</v>
       </c>
       <c r="S31">
-        <v>7.176666666666667</v>
+        <v>7.18</v>
       </c>
       <c r="T31">
-        <v>78.40333333333334</v>
+        <v>78.40000000000001</v>
       </c>
     </row>
   </sheetData>
